--- a/FIRST_TEST_LINEAR_CONTROL_SYSTEM.xlsx
+++ b/FIRST_TEST_LINEAR_CONTROL_SYSTEM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LINEAR_CONTROLL_SYSTEMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LINEAR_CONTROLL_SYSTEMS\AWARD_MID_TERM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CCC2C12-2781-4F60-9FF7-98337004F73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C03006-A07C-4D36-99C6-65F4B93DB5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
